--- a/2_Data/sheet/4_EconomicValuations/EcosystemServiceValueCoefficients.xlsx
+++ b/2_Data/sheet/4_EconomicValuations/EcosystemServiceValueCoefficients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MQ45019738\Dropbox\6_WIO_CCVA\WIOProjects\Data\6-Economic Valuation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCVA\ClimateriskWIO\2_Data\sheet\4_EconomicValuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F06B084-9F52-473F-A218-4F3670E86B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8BB33C-4E0F-42A3-86E5-5441C1E22F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{755E8616-CE0F-439E-B734-5A420AC7B0A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{755E8616-CE0F-439E-B734-5A420AC7B0A4}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_ecos" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,23 +446,11 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -542,23 +530,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1256,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4390067D-3F18-43EC-9B56-1E393C83E419}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,11 +1574,11 @@
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="15"/>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="15" t="s">
@@ -1616,7 +1604,7 @@
       <c r="E24" s="18">
         <v>2979.89</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>13</v>
       </c>
       <c r="G24" s="19">
@@ -1634,7 +1622,7 @@
       <c r="E25" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="21">
         <v>23</v>
       </c>
       <c r="G25" s="17">
@@ -1652,7 +1640,7 @@
       <c r="E26" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="21">
         <v>1184</v>
       </c>
       <c r="G26" s="17" t="s">
@@ -1668,14 +1656,14 @@
         <v>94</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>216.82</v>
       </c>
     </row>
@@ -1683,7 +1671,7 @@
       <c r="D29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="24">
         <v>2584</v>
       </c>
     </row>
@@ -1693,10 +1681,10 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="27"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
@@ -1758,10 +1746,10 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <f>AVERAGE(C37:C40)</f>
         <v>1.7056249750000001</v>
       </c>
@@ -1771,10 +1759,10 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <f>_xlfn.STDEV.P(C37:C40)</f>
         <v>0.6076102283547008</v>
       </c>
@@ -1785,7 +1773,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="25" t="s">
         <v>105</v>
       </c>
     </row>

--- a/2_Data/sheet/4_EconomicValuations/EcosystemServiceValueCoefficients.xlsx
+++ b/2_Data/sheet/4_EconomicValuations/EcosystemServiceValueCoefficients.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCVA\ClimateriskWIO\2_Data\sheet\4_EconomicValuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8BB33C-4E0F-42A3-86E5-5441C1E22F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA01D83E-1B7C-47D9-BCD0-113B7F2D45A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{755E8616-CE0F-439E-B734-5A420AC7B0A4}"/>
+    <workbookView xWindow="1860" yWindow="90" windowWidth="43200" windowHeight="17145" activeTab="2" xr2:uid="{755E8616-CE0F-439E-B734-5A420AC7B0A4}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_ecos" sheetId="1" r:id="rId1"/>
     <sheet name="ecos_vals_lit" sheetId="2" r:id="rId2"/>
+    <sheet name="mini" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
   <si>
     <t>1</t>
   </si>
@@ -399,13 +400,28 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>ISO3</t>
+  </si>
+  <si>
+    <t>CoralsVal</t>
+  </si>
+  <si>
+    <t>SeagrassVal</t>
+  </si>
+  <si>
+    <t>MangroveVal</t>
+  </si>
+  <si>
+    <t>CropsVal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +475,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -486,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -541,6 +570,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,7 +583,138 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -568,6 +731,28 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="DrEFA" id="{CC036439-F2AA-4745-9F6F-90E54619A19F}" userId="DrEFA" providerId="None"/>
 </personList>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E55D9506-FA4C-4FCC-92A1-FF012FD8359C}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E5" xr:uid="{E55D9506-FA4C-4FCC-92A1-FF012FD8359C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{42EFCBED-93D5-4740-8CE9-846BD380D8D8}" name="ISO3" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E97122CE-86E6-4D2F-948C-58A6E3A894ED}" name="CoralsVal" dataDxfId="3">
+      <calculatedColumnFormula>ecos_vals_lit!$H$24</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2F6DFD2B-2516-488C-BA59-8DDBF4014B02}" name="SeagrassVal" dataDxfId="2">
+      <calculatedColumnFormula>ecos_vals_lit!$H$25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{46FEB9C6-C30A-4CEF-AD48-5721D08CBEF1}" name="MangroveVal" dataDxfId="1">
+      <calculatedColumnFormula>ecos_vals_lit!$H$26</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{392A861E-236F-47C4-817E-9C6C288EA8A0}" name="CropsVal" dataDxfId="0">
+      <calculatedColumnFormula>ecos_vals_lit!D40</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4390067D-3F18-43EC-9B56-1E393C83E419}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1574,11 +1759,11 @@
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="15"/>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="15" t="s">
@@ -1681,10 +1866,10 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
@@ -1786,4 +1971,135 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920A326F-3F2E-40EE-B48A-75906913AC18}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="28">
+        <f>ecos_vals_lit!$H$24</f>
+        <v>4913.08</v>
+      </c>
+      <c r="C2" s="28">
+        <f>ecos_vals_lit!$H$25</f>
+        <v>781.66</v>
+      </c>
+      <c r="D2" s="28">
+        <f>ecos_vals_lit!$H$26</f>
+        <v>1184</v>
+      </c>
+      <c r="E2" s="27">
+        <f>ecos_vals_lit!D40</f>
+        <v>357.99148031799996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="28">
+        <f>ecos_vals_lit!$H$24</f>
+        <v>4913.08</v>
+      </c>
+      <c r="C3" s="28">
+        <f>ecos_vals_lit!$H$25</f>
+        <v>781.66</v>
+      </c>
+      <c r="D3" s="28">
+        <f>ecos_vals_lit!$H$26</f>
+        <v>1184</v>
+      </c>
+      <c r="E3" s="27">
+        <f>ecos_vals_lit!D37</f>
+        <v>322.54143199999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="28">
+        <f>ecos_vals_lit!$H$24</f>
+        <v>4913.08</v>
+      </c>
+      <c r="C4" s="28">
+        <f>ecos_vals_lit!$H$25</f>
+        <v>781.66</v>
+      </c>
+      <c r="D4" s="28">
+        <f>ecos_vals_lit!$H$26</f>
+        <v>1184</v>
+      </c>
+      <c r="E4" s="27">
+        <f>ecos_vals_lit!D38</f>
+        <v>218.66296999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="28">
+        <f>ecos_vals_lit!$H$24</f>
+        <v>4913.08</v>
+      </c>
+      <c r="C5" s="28">
+        <f>ecos_vals_lit!$H$25</f>
+        <v>781.66</v>
+      </c>
+      <c r="D5" s="28">
+        <f>ecos_vals_lit!$H$26</f>
+        <v>1184</v>
+      </c>
+      <c r="E5" s="27">
+        <f>ecos_vals_lit!D39</f>
+        <v>580.05854599999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E3:E5" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/2_Data/sheet/4_EconomicValuations/EcosystemServiceValueCoefficients.xlsx
+++ b/2_Data/sheet/4_EconomicValuations/EcosystemServiceValueCoefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCVA\ClimateriskWIO\2_Data\sheet\4_EconomicValuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA01D83E-1B7C-47D9-BCD0-113B7F2D45A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E26ED9-F8AF-4C0A-800B-491CD6284C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="90" windowWidth="43200" windowHeight="17145" activeTab="2" xr2:uid="{755E8616-CE0F-439E-B734-5A420AC7B0A4}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" activeTab="2" xr2:uid="{755E8616-CE0F-439E-B734-5A420AC7B0A4}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_ecos" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,39 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={9691B8FE-6847-4805-93A9-5469F6878BDD}</author>
+    <author>tc={628427F0-976A-4713-8348-EFFB87A27898}</author>
+    <author>tc={8B91037C-9574-4553-A12F-9904F03F443E}</author>
     <author>tc={8FD863EF-8241-44CE-AC28-01D05742462E}</author>
     <author>tc={8D71ADF9-6F15-48BA-A3A2-048358F48C84}</author>
     <author>tc={B6125EB2-3035-4E76-9612-E6DFE10EE842}</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{8FD863EF-8241-44CE-AC28-01D05742462E}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{9691B8FE-6847-4805-93A9-5469F6878BDD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Gonzalez eta l 2015</t>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="1" shapeId="0" xr:uid="{628427F0-976A-4713-8348-EFFB87A27898}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Azanza et al., 2017 </t>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="2" shapeId="0" xr:uid="{8B91037C-9574-4553-A12F-9904F03F443E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Gonzalez et al., 2015</t>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="3" shapeId="0" xr:uid="{8FD863EF-8241-44CE-AC28-01D05742462E}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +80,7 @@
     Mango, N., Mapemba, L., Tchale, H., Makate, C., Dunjana, N., &amp; Lundy, M. (2018). Maize value chain analysis: A case of smallholder maize production and marketing in selected areas of Malawi and Mozambique. Cogent Business &amp; Management, 5(1), 1503220. </t>
       </text>
     </comment>
-    <comment ref="F29" authorId="1" shapeId="0" xr:uid="{8D71ADF9-6F15-48BA-A3A2-048358F48C84}">
+    <comment ref="F29" authorId="4" shapeId="0" xr:uid="{8D71ADF9-6F15-48BA-A3A2-048358F48C84}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +90,7 @@
     2,584*0.0002 = 0.5168 US$ in 2013</t>
       </text>
     </comment>
-    <comment ref="D30" authorId="2" shapeId="0" xr:uid="{B6125EB2-3035-4E76-9612-E6DFE10EE842}">
+    <comment ref="D30" authorId="5" shapeId="0" xr:uid="{B6125EB2-3035-4E76-9612-E6DFE10EE842}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="112">
   <si>
     <t>1</t>
   </si>
@@ -396,12 +423,6 @@
     <t>Ritchie et al. 2022</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>ISO3</t>
   </si>
   <si>
@@ -415,13 +436,16 @@
   </si>
   <si>
     <t>CropsVal</t>
+  </si>
+  <si>
+    <t>Service Values (2020 US$/ha/y)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +512,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -515,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -579,6 +609,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +634,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -658,7 +691,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -738,16 +771,16 @@
   <autoFilter ref="A1:E5" xr:uid="{E55D9506-FA4C-4FCC-92A1-FF012FD8359C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{42EFCBED-93D5-4740-8CE9-846BD380D8D8}" name="ISO3" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E97122CE-86E6-4D2F-948C-58A6E3A894ED}" name="CoralsVal" dataDxfId="3">
-      <calculatedColumnFormula>ecos_vals_lit!$H$24</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{E97122CE-86E6-4D2F-948C-58A6E3A894ED}" name="CoralsVal" dataDxfId="2">
+      <calculatedColumnFormula>ecos_vals_lit!$J$40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2F6DFD2B-2516-488C-BA59-8DDBF4014B02}" name="SeagrassVal" dataDxfId="2">
-      <calculatedColumnFormula>ecos_vals_lit!$H$25</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{2F6DFD2B-2516-488C-BA59-8DDBF4014B02}" name="SeagrassVal" dataDxfId="1">
+      <calculatedColumnFormula>ecos_vals_lit!$J$39</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{46FEB9C6-C30A-4CEF-AD48-5721D08CBEF1}" name="MangroveVal" dataDxfId="1">
-      <calculatedColumnFormula>ecos_vals_lit!$H$26</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{46FEB9C6-C30A-4CEF-AD48-5721D08CBEF1}" name="MangroveVal" dataDxfId="0">
+      <calculatedColumnFormula>ecos_vals_lit!$J$38</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{392A861E-236F-47C4-817E-9C6C288EA8A0}" name="CropsVal" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{392A861E-236F-47C4-817E-9C6C288EA8A0}" name="CropsVal" dataDxfId="3">
       <calculatedColumnFormula>ecos_vals_lit!D40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1052,6 +1085,15 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E24" dT="2023-05-21T09:36:27.24" personId="{CC036439-F2AA-4745-9F6F-90E54619A19F}" id="{9691B8FE-6847-4805-93A9-5469F6878BDD}">
+    <text>Gonzalez eta l 2015</text>
+  </threadedComment>
+  <threadedComment ref="F24" dT="2023-05-21T09:36:56.07" personId="{CC036439-F2AA-4745-9F6F-90E54619A19F}" id="{628427F0-976A-4713-8348-EFFB87A27898}">
+    <text xml:space="preserve">Azanza et al., 2017 </text>
+  </threadedComment>
+  <threadedComment ref="G24" dT="2023-05-21T09:37:32.58" personId="{CC036439-F2AA-4745-9F6F-90E54619A19F}" id="{8B91037C-9574-4553-A12F-9904F03F443E}">
+    <text>Gonzalez et al., 2015</text>
+  </threadedComment>
   <threadedComment ref="D28" dT="2023-05-01T00:55:32.34" personId="{CC036439-F2AA-4745-9F6F-90E54619A19F}" id="{8FD863EF-8241-44CE-AC28-01D05742462E}">
     <text xml:space="preserve">Mango, N., Mapemba, L., Tchale, H., Makate, C., Dunjana, N., &amp; Lundy, M. (2018). Maize value chain analysis: A case of smallholder maize production and marketing in selected areas of Malawi and Mozambique. Cogent Business &amp; Management, 5(1), 1503220. </text>
   </threadedComment>
@@ -1427,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4390067D-3F18-43EC-9B56-1E393C83E419}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="C19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,13 +1907,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
         <v>98</v>
       </c>
       <c r="C35" s="30"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
@@ -1881,8 +1923,13 @@
       <c r="D36" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G36" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>104</v>
       </c>
@@ -1890,11 +1937,26 @@
         <v>1.4876</v>
       </c>
       <c r="D37" s="1">
-        <f>C37*$F$28</f>
-        <v>322.54143199999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <f>C37*$H$42</f>
+        <v>332.43397199999998</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>101</v>
       </c>
@@ -1902,11 +1964,27 @@
         <v>1.0085</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ref="D38:D41" si="1">C38*$F$28</f>
-        <v>218.66296999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D38:D41" si="1">C38*$H$42</f>
+        <v>225.369495</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="20">
+        <v>3253.89</v>
+      </c>
+      <c r="H38" s="1">
+        <v>13.73</v>
+      </c>
+      <c r="I38" s="20">
+        <v>2096.75</v>
+      </c>
+      <c r="J38" s="20">
+        <f>SUM(G38:I38)</f>
+        <v>5364.37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>102</v>
       </c>
@@ -1915,10 +1993,23 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>580.05854599999998</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+        <v>597.84929099999999</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="1">
+        <v>24.28</v>
+      </c>
+      <c r="I39" s="1">
+        <v>828.42</v>
+      </c>
+      <c r="J39" s="20">
+        <f t="shared" ref="J39:J42" si="2">SUM(G39:I39)</f>
+        <v>852.69999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>103</v>
       </c>
@@ -1927,45 +2018,50 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>357.99148031799996</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="22">
-        <f>AVERAGE(C37:C40)</f>
-        <v>1.7056249750000001</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="1"/>
-        <v>369.8136070795</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="22">
-        <f>_xlfn.STDEV.P(C37:C40)</f>
-        <v>0.6076102283547008</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+        <v>368.97129465299997</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="20">
+        <v>1250.1300000000001</v>
+      </c>
+      <c r="J40" s="20">
+        <f t="shared" si="2"/>
+        <v>1250.1300000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="25" t="s">
+      <c r="C41" s="22"/>
+      <c r="F41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="25" t="s">
         <v>105</v>
       </c>
+      <c r="C42" s="22"/>
+      <c r="F42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="1">
+        <v>223.47</v>
+      </c>
+      <c r="J42" s="20">
+        <f t="shared" si="2"/>
+        <v>223.47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G36:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1978,7 +2074,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1993,19 +2089,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2013,20 +2109,20 @@
         <v>103</v>
       </c>
       <c r="B2" s="28">
-        <f>ecos_vals_lit!$H$24</f>
-        <v>4913.08</v>
+        <f>ecos_vals_lit!$J$40</f>
+        <v>1250.1300000000001</v>
       </c>
       <c r="C2" s="28">
-        <f>ecos_vals_lit!$H$25</f>
-        <v>781.66</v>
+        <f>ecos_vals_lit!$J$39</f>
+        <v>852.69999999999993</v>
       </c>
       <c r="D2" s="28">
-        <f>ecos_vals_lit!$H$26</f>
-        <v>1184</v>
+        <f>ecos_vals_lit!$J$38</f>
+        <v>5364.37</v>
       </c>
       <c r="E2" s="27">
         <f>ecos_vals_lit!D40</f>
-        <v>357.99148031799996</v>
+        <v>368.97129465299997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,20 +2130,20 @@
         <v>104</v>
       </c>
       <c r="B3" s="28">
-        <f>ecos_vals_lit!$H$24</f>
-        <v>4913.08</v>
+        <f>ecos_vals_lit!$J$40</f>
+        <v>1250.1300000000001</v>
       </c>
       <c r="C3" s="28">
-        <f>ecos_vals_lit!$H$25</f>
-        <v>781.66</v>
+        <f>ecos_vals_lit!$J$39</f>
+        <v>852.69999999999993</v>
       </c>
       <c r="D3" s="28">
-        <f>ecos_vals_lit!$H$26</f>
-        <v>1184</v>
+        <f>ecos_vals_lit!$J$38</f>
+        <v>5364.37</v>
       </c>
       <c r="E3" s="27">
         <f>ecos_vals_lit!D37</f>
-        <v>322.54143199999999</v>
+        <v>332.43397199999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2055,20 +2151,20 @@
         <v>101</v>
       </c>
       <c r="B4" s="28">
-        <f>ecos_vals_lit!$H$24</f>
-        <v>4913.08</v>
+        <f>ecos_vals_lit!$J$40</f>
+        <v>1250.1300000000001</v>
       </c>
       <c r="C4" s="28">
-        <f>ecos_vals_lit!$H$25</f>
-        <v>781.66</v>
+        <f>ecos_vals_lit!$J$39</f>
+        <v>852.69999999999993</v>
       </c>
       <c r="D4" s="28">
-        <f>ecos_vals_lit!$H$26</f>
-        <v>1184</v>
+        <f>ecos_vals_lit!$J$38</f>
+        <v>5364.37</v>
       </c>
       <c r="E4" s="27">
         <f>ecos_vals_lit!D38</f>
-        <v>218.66296999999997</v>
+        <v>225.369495</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2076,20 +2172,20 @@
         <v>102</v>
       </c>
       <c r="B5" s="28">
-        <f>ecos_vals_lit!$H$24</f>
-        <v>4913.08</v>
+        <f>ecos_vals_lit!$J$40</f>
+        <v>1250.1300000000001</v>
       </c>
       <c r="C5" s="28">
-        <f>ecos_vals_lit!$H$25</f>
-        <v>781.66</v>
+        <f>ecos_vals_lit!$J$39</f>
+        <v>852.69999999999993</v>
       </c>
       <c r="D5" s="28">
-        <f>ecos_vals_lit!$H$26</f>
-        <v>1184</v>
+        <f>ecos_vals_lit!$J$38</f>
+        <v>5364.37</v>
       </c>
       <c r="E5" s="27">
         <f>ecos_vals_lit!D39</f>
-        <v>580.05854599999998</v>
+        <v>597.84929099999999</v>
       </c>
     </row>
   </sheetData>
